--- a/hw6/all_four.xlsx
+++ b/hw6/all_four.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Desktop/RPMWE hw/hw6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="458">
   <si>
     <t>Year</t>
   </si>
@@ -935,6 +936,177 @@
     <t>Howard Hobson</t>
   </si>
   <si>
+    <t xml:space="preserve">Villanova </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. John's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgetown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC State </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marquette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Western </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyola  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Salle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Cross </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma A&amp;M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42-40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon </t>
+  </si>
+  <si>
+    <t>Loyola-Chicago</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>Oklahoma St.</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Iowa St.</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Duquesne</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
@@ -944,92 +1116,302 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Western Ky.</t>
   </si>
   <si>
     <t>St. Joseph's</t>
   </si>
   <si>
-    <t xml:space="preserve">75-68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. John's </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54-53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42-40 </t>
-  </si>
-  <si>
-    <t>Loyola-Chicago</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>VCU</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>George Mason</t>
-  </si>
-  <si>
-    <t>Oklahoma St.</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Iowa St.</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Duquesne</t>
-  </si>
-  <si>
-    <t>Texas Western</t>
-  </si>
-  <si>
-    <t>Loyola</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Lipscomb</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>East Tennessee State</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>UNC Greensboro</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Northeastern</t>
+  </si>
+  <si>
+    <t>Northern Kentucky</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Depaul</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Grand Canyon</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Texas State</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Utah Valley</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>Loyola Marymount</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Gardner-Webb</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>UC Santa Barbara</t>
+  </si>
+  <si>
+    <t>Central Michigan</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1062,6 +1444,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1E1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF48494A"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1084,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,6 +1493,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1374,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1827,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1432,7 +1839,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1449,7 +1856,7 @@
         <v>2017</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1458,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
@@ -1478,7 +1885,7 @@
         <v>2016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1507,7 +1914,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1536,7 +1943,7 @@
         <v>2014</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -1565,7 +1972,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -1594,7 +2001,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -1623,7 +2030,7 @@
         <v>2011</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1635,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -1652,7 +2059,7 @@
         <v>2010</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -1681,7 +2088,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -1690,10 +2097,10 @@
         <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>52</v>
@@ -1710,13 +2117,13 @@
         <v>2008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1739,7 +2146,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>56</v>
@@ -1768,7 +2175,7 @@
         <v>2006</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
@@ -1777,7 +2184,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>148</v>
@@ -1797,7 +2204,7 @@
         <v>2005</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>62</v>
@@ -1826,7 +2233,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>66</v>
@@ -1838,7 +2245,7 @@
         <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
@@ -1855,7 +2262,7 @@
         <v>2003</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>69</v>
@@ -1884,7 +2291,7 @@
         <v>2002</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>72</v>
@@ -1913,7 +2320,7 @@
         <v>2001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>76</v>
@@ -1922,7 +2329,7 @@
         <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
@@ -1942,7 +2349,7 @@
         <v>2000</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>79</v>
@@ -1971,7 +2378,7 @@
         <v>1999</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -2000,7 +2407,7 @@
         <v>1998</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>86</v>
@@ -2009,7 +2416,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>21</v>
@@ -2029,10 +2436,10 @@
         <v>1997</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -2041,7 +2448,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>26</v>
@@ -2058,7 +2465,7 @@
         <v>1996</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>92</v>
@@ -2070,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>95</v>
@@ -2087,7 +2494,7 @@
         <v>1995</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>98</v>
@@ -2096,7 +2503,7 @@
         <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>21</v>
@@ -2116,7 +2523,7 @@
         <v>1994</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>103</v>
@@ -2145,7 +2552,7 @@
         <v>1993</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>107</v>
@@ -2174,7 +2581,7 @@
         <v>1992</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>110</v>
@@ -2203,7 +2610,7 @@
         <v>1991</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>112</v>
@@ -2232,7 +2639,7 @@
         <v>1990</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>114</v>
@@ -2261,10 +2668,10 @@
         <v>1989</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>118</v>
@@ -2290,7 +2697,7 @@
         <v>1988</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>121</v>
@@ -2319,7 +2726,7 @@
         <v>1987</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>126</v>
@@ -2348,7 +2755,7 @@
         <v>1986</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>129</v>
@@ -2377,7 +2784,7 @@
         <v>1985</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>133</v>
@@ -2386,7 +2793,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>184</v>
@@ -2406,7 +2813,7 @@
         <v>1984</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>56</v>
@@ -2435,7 +2842,7 @@
         <v>1983</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>140</v>
@@ -2444,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>174</v>
@@ -2464,7 +2871,7 @@
         <v>1982</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>144</v>
@@ -2493,7 +2900,7 @@
         <v>1981</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>146</v>
@@ -2522,7 +2929,7 @@
         <v>1980</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>151</v>
@@ -2551,7 +2958,7 @@
         <v>1979</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2580,7 +2987,7 @@
         <v>1978</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>162</v>
@@ -2609,7 +3016,7 @@
         <v>1977</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>38</v>
@@ -2638,7 +3045,7 @@
         <v>1976</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>170</v>
@@ -2667,7 +3074,7 @@
         <v>1975</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>173</v>
@@ -2696,7 +3103,7 @@
         <v>1974</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>178</v>
@@ -2725,7 +3132,7 @@
         <v>1973</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>183</v>
@@ -2754,7 +3161,7 @@
         <v>1972</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>187</v>
@@ -2783,16 +3190,16 @@
         <v>1971</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>39</v>
@@ -2812,7 +3219,7 @@
         <v>1970</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>192</v>
@@ -2841,7 +3248,7 @@
         <v>1969</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>198</v>
@@ -2870,7 +3277,7 @@
         <v>1968</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>202</v>
@@ -2899,7 +3306,7 @@
         <v>1967</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>203</v>
@@ -2928,7 +3335,7 @@
         <v>1966</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>112</v>
@@ -2957,7 +3364,7 @@
         <v>1965</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>207</v>
@@ -2986,7 +3393,7 @@
         <v>1964</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>212</v>
@@ -3015,10 +3422,10 @@
         <v>1963</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>215</v>
@@ -3044,7 +3451,7 @@
         <v>1962</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>219</v>
@@ -3073,16 +3480,16 @@
         <v>1961</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>87</v>
@@ -3102,7 +3509,7 @@
         <v>1960</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>224</v>
@@ -3131,7 +3538,7 @@
         <v>1959</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>229</v>
@@ -3160,7 +3567,7 @@
         <v>1958</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>233</v>
@@ -3189,10 +3596,10 @@
         <v>1957</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>39</v>
@@ -3218,7 +3625,7 @@
         <v>1956</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>239</v>
@@ -3247,7 +3654,7 @@
         <v>1955</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>244</v>
@@ -3276,7 +3683,7 @@
         <v>1954</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>248</v>
@@ -3305,7 +3712,7 @@
         <v>1953</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>254</v>
@@ -3334,13 +3741,13 @@
         <v>1952</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>63</v>
@@ -3363,7 +3770,7 @@
         <v>1951</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>262</v>
@@ -3392,7 +3799,7 @@
         <v>1950</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>265</v>
@@ -3421,7 +3828,7 @@
         <v>1949</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>271</v>
@@ -3450,7 +3857,7 @@
         <v>1948</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>273</v>
@@ -3479,7 +3886,7 @@
         <v>1947</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>275</v>
@@ -3508,7 +3915,7 @@
         <v>1946</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>280</v>
@@ -3537,7 +3944,7 @@
         <v>1945</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>283</v>
@@ -3566,16 +3973,16 @@
         <v>1944</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>40</v>
@@ -3595,7 +4002,7 @@
         <v>1943</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>287</v>
@@ -3624,7 +4031,7 @@
         <v>1942</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>290</v>
@@ -3653,7 +4060,7 @@
         <v>1941</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>293</v>
@@ -3662,7 +4069,7 @@
         <v>294</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>99</v>
@@ -3682,7 +4089,7 @@
         <v>1940</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>297</v>
@@ -3691,7 +4098,7 @@
         <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>251</v>
@@ -3711,7 +4118,7 @@
         <v>1939</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>299</v>
@@ -3723,7 +4130,7 @@
         <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>241</v>
@@ -3737,86 +4144,1919 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.allbrackets.com/bracket.php?year=2018"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.allbrackets.com/bracket.php?year=2017"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.allbrackets.com/bracket.php?year=2016"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.allbrackets.com/bracket.php?year=2015"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.allbrackets.com/bracket.php?year=2014"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.allbrackets.com/bracket.php?year=2013"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.allbrackets.com/bracket.php?year=2012"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.allbrackets.com/bracket.php?year=2011"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.allbrackets.com/bracket.php?year=2010"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.allbrackets.com/bracket.php?year=2009"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.allbrackets.com/bracket.php?year=2008"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.allbrackets.com/bracket.php?year=2007"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.allbrackets.com/bracket.php?year=2006"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.allbrackets.com/bracket.php?year=2005"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.allbrackets.com/bracket.php?year=2004"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.allbrackets.com/bracket.php?year=2003"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.allbrackets.com/bracket.php?year=2002"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.allbrackets.com/bracket.php?year=2001"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.allbrackets.com/bracket.php?year=2000"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.allbrackets.com/bracket.php?year=1999"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.allbrackets.com/bracket.php?year=1998"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.allbrackets.com/bracket.php?year=1997"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.allbrackets.com/bracket.php?year=1996"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.allbrackets.com/bracket.php?year=1995"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.allbrackets.com/bracket.php?year=1994"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.allbrackets.com/bracket.php?year=1993"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://www.allbrackets.com/bracket.php?year=1992"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.allbrackets.com/bracket.php?year=1991"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.allbrackets.com/bracket.php?year=1990"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.allbrackets.com/bracket.php?year=1989"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://www.allbrackets.com/bracket.php?year=1988"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://www.allbrackets.com/bracket.php?year=1987"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://www.allbrackets.com/bracket.php?year=1986"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://www.allbrackets.com/bracket.php?year=1985"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://www.allbrackets.com/bracket.php?year=1984"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://www.allbrackets.com/bracket.php?year=1983"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://www.allbrackets.com/bracket.php?year=1982"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://www.allbrackets.com/bracket.php?year=1981"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://www.allbrackets.com/bracket.php?year=1980"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://www.allbrackets.com/bracket.php?year=1979"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://www.allbrackets.com/bracket.php?year=1978"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://www.allbrackets.com/bracket.php?year=1977"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://www.allbrackets.com/bracket.php?year=1976"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://www.allbrackets.com/bracket.php?year=1975"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://www.allbrackets.com/bracket.php?year=1974"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://www.allbrackets.com/bracket.php?year=1973"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://www.allbrackets.com/bracket.php?year=1972"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://www.allbrackets.com/bracket.php?year=1971"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://www.allbrackets.com/bracket.php?year=1970"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://www.allbrackets.com/bracket.php?year=1969"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://www.allbrackets.com/bracket.php?year=1968"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://www.allbrackets.com/bracket.php?year=1967"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://www.allbrackets.com/bracket.php?year=1966"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://www.allbrackets.com/bracket.php?year=1965"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://www.allbrackets.com/bracket.php?year=1964"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://www.allbrackets.com/bracket.php?year=1963"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://www.allbrackets.com/bracket.php?year=1962"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://www.allbrackets.com/bracket.php?year=1961"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://www.allbrackets.com/bracket.php?year=1960"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://www.allbrackets.com/bracket.php?year=1959"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://www.allbrackets.com/bracket.php?year=1958"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://www.allbrackets.com/bracket.php?year=1957"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://www.allbrackets.com/bracket.php?year=1956"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://www.allbrackets.com/bracket.php?year=1955"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://www.allbrackets.com/bracket.php?year=1954"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://www.allbrackets.com/bracket.php?year=1953"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://www.allbrackets.com/bracket.php?year=1952"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://www.allbrackets.com/bracket.php?year=1951"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://www.allbrackets.com/bracket.php?year=1950"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://www.allbrackets.com/bracket.php?year=1949"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://www.allbrackets.com/bracket.php?year=1948"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://www.allbrackets.com/bracket.php?year=1947"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://www.allbrackets.com/bracket.php?year=1946"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://www.allbrackets.com/bracket.php?year=1945"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://www.allbrackets.com/bracket.php?year=1944"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://www.allbrackets.com/bracket.php?year=1943"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://www.allbrackets.com/bracket.php?year=1942"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://www.allbrackets.com/bracket.php?year=1941"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://www.allbrackets.com/bracket.php?year=1940"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://www.allbrackets.com/bracket.php?year=1939"/>
+    <hyperlink ref="A81" r:id="rId1" display="https://www.allbrackets.com/bracket.php?year=1939"/>
+    <hyperlink ref="A80" r:id="rId2" display="https://www.allbrackets.com/bracket.php?year=1940"/>
+    <hyperlink ref="A79" r:id="rId3" display="https://www.allbrackets.com/bracket.php?year=1941"/>
+    <hyperlink ref="A78" r:id="rId4" display="https://www.allbrackets.com/bracket.php?year=1942"/>
+    <hyperlink ref="A77" r:id="rId5" display="https://www.allbrackets.com/bracket.php?year=1943"/>
+    <hyperlink ref="A76" r:id="rId6" display="https://www.allbrackets.com/bracket.php?year=1944"/>
+    <hyperlink ref="A75" r:id="rId7" display="https://www.allbrackets.com/bracket.php?year=1945"/>
+    <hyperlink ref="A74" r:id="rId8" display="https://www.allbrackets.com/bracket.php?year=1946"/>
+    <hyperlink ref="A73" r:id="rId9" display="https://www.allbrackets.com/bracket.php?year=1947"/>
+    <hyperlink ref="A72" r:id="rId10" display="https://www.allbrackets.com/bracket.php?year=1948"/>
+    <hyperlink ref="A71" r:id="rId11" display="https://www.allbrackets.com/bracket.php?year=1949"/>
+    <hyperlink ref="A70" r:id="rId12" display="https://www.allbrackets.com/bracket.php?year=1950"/>
+    <hyperlink ref="A69" r:id="rId13" display="https://www.allbrackets.com/bracket.php?year=1951"/>
+    <hyperlink ref="A68" r:id="rId14" display="https://www.allbrackets.com/bracket.php?year=1952"/>
+    <hyperlink ref="A67" r:id="rId15" display="https://www.allbrackets.com/bracket.php?year=1953"/>
+    <hyperlink ref="A66" r:id="rId16" display="https://www.allbrackets.com/bracket.php?year=1954"/>
+    <hyperlink ref="A65" r:id="rId17" display="https://www.allbrackets.com/bracket.php?year=1955"/>
+    <hyperlink ref="A64" r:id="rId18" display="https://www.allbrackets.com/bracket.php?year=1956"/>
+    <hyperlink ref="A63" r:id="rId19" display="https://www.allbrackets.com/bracket.php?year=1957"/>
+    <hyperlink ref="A62" r:id="rId20" display="https://www.allbrackets.com/bracket.php?year=1958"/>
+    <hyperlink ref="A61" r:id="rId21" display="https://www.allbrackets.com/bracket.php?year=1959"/>
+    <hyperlink ref="A60" r:id="rId22" display="https://www.allbrackets.com/bracket.php?year=1960"/>
+    <hyperlink ref="A59" r:id="rId23" display="https://www.allbrackets.com/bracket.php?year=1961"/>
+    <hyperlink ref="A58" r:id="rId24" display="https://www.allbrackets.com/bracket.php?year=1962"/>
+    <hyperlink ref="A57" r:id="rId25" display="https://www.allbrackets.com/bracket.php?year=1963"/>
+    <hyperlink ref="A56" r:id="rId26" display="https://www.allbrackets.com/bracket.php?year=1964"/>
+    <hyperlink ref="A55" r:id="rId27" display="https://www.allbrackets.com/bracket.php?year=1965"/>
+    <hyperlink ref="A54" r:id="rId28" display="https://www.allbrackets.com/bracket.php?year=1966"/>
+    <hyperlink ref="A53" r:id="rId29" display="https://www.allbrackets.com/bracket.php?year=1967"/>
+    <hyperlink ref="A52" r:id="rId30" display="https://www.allbrackets.com/bracket.php?year=1968"/>
+    <hyperlink ref="A51" r:id="rId31" display="https://www.allbrackets.com/bracket.php?year=1969"/>
+    <hyperlink ref="A50" r:id="rId32" display="https://www.allbrackets.com/bracket.php?year=1970"/>
+    <hyperlink ref="A49" r:id="rId33" display="https://www.allbrackets.com/bracket.php?year=1971"/>
+    <hyperlink ref="A48" r:id="rId34" display="https://www.allbrackets.com/bracket.php?year=1972"/>
+    <hyperlink ref="A47" r:id="rId35" display="https://www.allbrackets.com/bracket.php?year=1973"/>
+    <hyperlink ref="A46" r:id="rId36" display="https://www.allbrackets.com/bracket.php?year=1974"/>
+    <hyperlink ref="A45" r:id="rId37" display="https://www.allbrackets.com/bracket.php?year=1975"/>
+    <hyperlink ref="A44" r:id="rId38" display="https://www.allbrackets.com/bracket.php?year=1976"/>
+    <hyperlink ref="A43" r:id="rId39" display="https://www.allbrackets.com/bracket.php?year=1977"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://www.allbrackets.com/bracket.php?year=1978"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://www.allbrackets.com/bracket.php?year=1979"/>
+    <hyperlink ref="A40" r:id="rId42" display="https://www.allbrackets.com/bracket.php?year=1980"/>
+    <hyperlink ref="A39" r:id="rId43" display="https://www.allbrackets.com/bracket.php?year=1981"/>
+    <hyperlink ref="A38" r:id="rId44" display="https://www.allbrackets.com/bracket.php?year=1982"/>
+    <hyperlink ref="A37" r:id="rId45" display="https://www.allbrackets.com/bracket.php?year=1983"/>
+    <hyperlink ref="A36" r:id="rId46" display="https://www.allbrackets.com/bracket.php?year=1984"/>
+    <hyperlink ref="A35" r:id="rId47" display="https://www.allbrackets.com/bracket.php?year=1985"/>
+    <hyperlink ref="A34" r:id="rId48" display="https://www.allbrackets.com/bracket.php?year=1986"/>
+    <hyperlink ref="A33" r:id="rId49" display="https://www.allbrackets.com/bracket.php?year=1987"/>
+    <hyperlink ref="A32" r:id="rId50" display="https://www.allbrackets.com/bracket.php?year=1988"/>
+    <hyperlink ref="A31" r:id="rId51" display="https://www.allbrackets.com/bracket.php?year=1989"/>
+    <hyperlink ref="A30" r:id="rId52" display="https://www.allbrackets.com/bracket.php?year=1990"/>
+    <hyperlink ref="A29" r:id="rId53" display="https://www.allbrackets.com/bracket.php?year=1991"/>
+    <hyperlink ref="A28" r:id="rId54" display="https://www.allbrackets.com/bracket.php?year=1992"/>
+    <hyperlink ref="A27" r:id="rId55" display="https://www.allbrackets.com/bracket.php?year=1993"/>
+    <hyperlink ref="A26" r:id="rId56" display="https://www.allbrackets.com/bracket.php?year=1994"/>
+    <hyperlink ref="A25" r:id="rId57" display="https://www.allbrackets.com/bracket.php?year=1995"/>
+    <hyperlink ref="A24" r:id="rId58" display="https://www.allbrackets.com/bracket.php?year=1996"/>
+    <hyperlink ref="A23" r:id="rId59" display="https://www.allbrackets.com/bracket.php?year=1997"/>
+    <hyperlink ref="A22" r:id="rId60" display="https://www.allbrackets.com/bracket.php?year=1998"/>
+    <hyperlink ref="A21" r:id="rId61" display="https://www.allbrackets.com/bracket.php?year=1999"/>
+    <hyperlink ref="A20" r:id="rId62" display="https://www.allbrackets.com/bracket.php?year=2000"/>
+    <hyperlink ref="A19" r:id="rId63" display="https://www.allbrackets.com/bracket.php?year=2001"/>
+    <hyperlink ref="A18" r:id="rId64" display="https://www.allbrackets.com/bracket.php?year=2002"/>
+    <hyperlink ref="A17" r:id="rId65" display="https://www.allbrackets.com/bracket.php?year=2003"/>
+    <hyperlink ref="A16" r:id="rId66" display="https://www.allbrackets.com/bracket.php?year=2004"/>
+    <hyperlink ref="A15" r:id="rId67" display="https://www.allbrackets.com/bracket.php?year=2005"/>
+    <hyperlink ref="A14" r:id="rId68" display="https://www.allbrackets.com/bracket.php?year=2006"/>
+    <hyperlink ref="A13" r:id="rId69" display="https://www.allbrackets.com/bracket.php?year=2007"/>
+    <hyperlink ref="A12" r:id="rId70" display="https://www.allbrackets.com/bracket.php?year=2008"/>
+    <hyperlink ref="A11" r:id="rId71" display="https://www.allbrackets.com/bracket.php?year=2009"/>
+    <hyperlink ref="A10" r:id="rId72" display="https://www.allbrackets.com/bracket.php?year=2010"/>
+    <hyperlink ref="A9" r:id="rId73" display="https://www.allbrackets.com/bracket.php?year=2011"/>
+    <hyperlink ref="A8" r:id="rId74" display="https://www.allbrackets.com/bracket.php?year=2012"/>
+    <hyperlink ref="A7" r:id="rId75" display="https://www.allbrackets.com/bracket.php?year=2013"/>
+    <hyperlink ref="A6" r:id="rId76" display="https://www.allbrackets.com/bracket.php?year=2014"/>
+    <hyperlink ref="A5" r:id="rId77" display="https://www.allbrackets.com/bracket.php?year=2015"/>
+    <hyperlink ref="A4" r:id="rId78" display="https://www.allbrackets.com/bracket.php?year=2016"/>
+    <hyperlink ref="A3" r:id="rId79" display="https://www.allbrackets.com/bracket.php?year=2017"/>
+    <hyperlink ref="A2" r:id="rId80" display="https://www.allbrackets.com/bracket.php?year=2018"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="15">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="15">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="15">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="15">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="15">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="15">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="15">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="15">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="15">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="15">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="15">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="15">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="15">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="15">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="15">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="15">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="15">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="15">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="15">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="15">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="15">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="15">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="15">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="15">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="15">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="15">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" s="15">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="15">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C40" s="15">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="15">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="15">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="15">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="15">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C56" s="15">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="15">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" s="15">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C60" s="15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" s="15">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="15">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="15">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="15">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="15">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="15">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="15">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="15">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C73" s="15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C74" s="15">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" s="15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79" s="15">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C80" s="15">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C82" s="15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="15">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="15">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C89" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C90" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C91" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="15">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="15">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="15">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C103" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" s="11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C111" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C113" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C114" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C115" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="11">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C117" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C118" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C119" s="11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" s="11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C122" s="11">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C123" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C124" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C125" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" s="11">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C127" s="11">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="11">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C131" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="11">
+        <v>131</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C135" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C139" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C140" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C141" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C143" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C144" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C145" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C146" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C148" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C150" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C151" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
+    <hyperlink ref="B22" r:id="rId22"/>
+    <hyperlink ref="B23" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B29" r:id="rId29"/>
+    <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="B31" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
+    <hyperlink ref="B33" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="B35" r:id="rId35"/>
+    <hyperlink ref="B36" r:id="rId36"/>
+    <hyperlink ref="B37" r:id="rId37"/>
+    <hyperlink ref="B38" r:id="rId38"/>
+    <hyperlink ref="B39" r:id="rId39"/>
+    <hyperlink ref="B40" r:id="rId40"/>
+    <hyperlink ref="B41" r:id="rId41"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="B43" r:id="rId43"/>
+    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="B45" r:id="rId45"/>
+    <hyperlink ref="B46" r:id="rId46"/>
+    <hyperlink ref="B47" r:id="rId47"/>
+    <hyperlink ref="B48" r:id="rId48"/>
+    <hyperlink ref="B49" r:id="rId49"/>
+    <hyperlink ref="B50" r:id="rId50"/>
+    <hyperlink ref="B51" r:id="rId51"/>
+    <hyperlink ref="B52" r:id="rId52"/>
+    <hyperlink ref="B53" r:id="rId53"/>
+    <hyperlink ref="B54" r:id="rId54"/>
+    <hyperlink ref="B55" r:id="rId55"/>
+    <hyperlink ref="B56" r:id="rId56"/>
+    <hyperlink ref="B57" r:id="rId57"/>
+    <hyperlink ref="B58" r:id="rId58"/>
+    <hyperlink ref="B59" r:id="rId59"/>
+    <hyperlink ref="B60" r:id="rId60"/>
+    <hyperlink ref="B61" r:id="rId61"/>
+    <hyperlink ref="B62" r:id="rId62"/>
+    <hyperlink ref="B63" r:id="rId63"/>
+    <hyperlink ref="B64" r:id="rId64"/>
+    <hyperlink ref="B65" r:id="rId65"/>
+    <hyperlink ref="B66" r:id="rId66"/>
+    <hyperlink ref="B67" r:id="rId67"/>
+    <hyperlink ref="B68" r:id="rId68"/>
+    <hyperlink ref="B69" r:id="rId69"/>
+    <hyperlink ref="B70" r:id="rId70"/>
+    <hyperlink ref="B71" r:id="rId71"/>
+    <hyperlink ref="B72" r:id="rId72"/>
+    <hyperlink ref="B73" r:id="rId73"/>
+    <hyperlink ref="B74" r:id="rId74"/>
+    <hyperlink ref="B75" r:id="rId75"/>
+    <hyperlink ref="B76" r:id="rId76"/>
+    <hyperlink ref="B77" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="B79" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
+    <hyperlink ref="B81" r:id="rId81"/>
+    <hyperlink ref="B82" r:id="rId82"/>
+    <hyperlink ref="B83" r:id="rId83"/>
+    <hyperlink ref="B84" r:id="rId84"/>
+    <hyperlink ref="B85" r:id="rId85"/>
+    <hyperlink ref="B86" r:id="rId86"/>
+    <hyperlink ref="B87" r:id="rId87"/>
+    <hyperlink ref="B88" r:id="rId88"/>
+    <hyperlink ref="B89" r:id="rId89"/>
+    <hyperlink ref="B90" r:id="rId90"/>
+    <hyperlink ref="B91" r:id="rId91"/>
+    <hyperlink ref="B92" r:id="rId92"/>
+    <hyperlink ref="B93" r:id="rId93"/>
+    <hyperlink ref="B94" r:id="rId94"/>
+    <hyperlink ref="B95" r:id="rId95"/>
+    <hyperlink ref="B96" r:id="rId96"/>
+    <hyperlink ref="B97" r:id="rId97"/>
+    <hyperlink ref="B98" r:id="rId98"/>
+    <hyperlink ref="B99" r:id="rId99"/>
+    <hyperlink ref="B100" r:id="rId100"/>
+    <hyperlink ref="B101" r:id="rId101"/>
+    <hyperlink ref="B102" r:id="rId102"/>
+    <hyperlink ref="B103" r:id="rId103"/>
+    <hyperlink ref="B104" r:id="rId104"/>
+    <hyperlink ref="B105" r:id="rId105"/>
+    <hyperlink ref="B106" r:id="rId106"/>
+    <hyperlink ref="B107" r:id="rId107"/>
+    <hyperlink ref="B108" r:id="rId108"/>
+    <hyperlink ref="B109" r:id="rId109"/>
+    <hyperlink ref="B110" r:id="rId110"/>
+    <hyperlink ref="B111" r:id="rId111"/>
+    <hyperlink ref="B112" r:id="rId112"/>
+    <hyperlink ref="B113" r:id="rId113"/>
+    <hyperlink ref="B114" r:id="rId114"/>
+    <hyperlink ref="B115" r:id="rId115"/>
+    <hyperlink ref="B116" r:id="rId116"/>
+    <hyperlink ref="B117" r:id="rId117"/>
+    <hyperlink ref="B118" r:id="rId118"/>
+    <hyperlink ref="B119" r:id="rId119"/>
+    <hyperlink ref="B120" r:id="rId120"/>
+    <hyperlink ref="B121" r:id="rId121"/>
+    <hyperlink ref="B122" r:id="rId122"/>
+    <hyperlink ref="B123" r:id="rId123"/>
+    <hyperlink ref="B124" r:id="rId124"/>
+    <hyperlink ref="B125" r:id="rId125"/>
+    <hyperlink ref="B126" r:id="rId126"/>
+    <hyperlink ref="B127" r:id="rId127"/>
+    <hyperlink ref="B128" r:id="rId128"/>
+    <hyperlink ref="B129" r:id="rId129"/>
+    <hyperlink ref="B130" r:id="rId130"/>
+    <hyperlink ref="B131" r:id="rId131"/>
+    <hyperlink ref="B132" r:id="rId132"/>
+    <hyperlink ref="B133" r:id="rId133"/>
+    <hyperlink ref="B134" r:id="rId134"/>
+    <hyperlink ref="B135" r:id="rId135"/>
+    <hyperlink ref="B136" r:id="rId136"/>
+    <hyperlink ref="B137" r:id="rId137"/>
+    <hyperlink ref="B138" r:id="rId138"/>
+    <hyperlink ref="B139" r:id="rId139"/>
+    <hyperlink ref="B140" r:id="rId140"/>
+    <hyperlink ref="B141" r:id="rId141"/>
+    <hyperlink ref="B142" r:id="rId142"/>
+    <hyperlink ref="B143" r:id="rId143"/>
+    <hyperlink ref="B144" r:id="rId144"/>
+    <hyperlink ref="B145" r:id="rId145"/>
+    <hyperlink ref="B146" r:id="rId146"/>
+    <hyperlink ref="B147" r:id="rId147"/>
+    <hyperlink ref="B148" r:id="rId148"/>
+    <hyperlink ref="B149" r:id="rId149"/>
+    <hyperlink ref="B150" r:id="rId150"/>
+    <hyperlink ref="B151" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
